--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3353965.744666891</v>
+        <v>3353239.145795667</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.6153303</v>
+        <v>5851605.615330301</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124474</v>
+        <v>864456.6793124483</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5936778.237198867</v>
+        <v>5936778.237198868</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>289.4604429004896</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.70492599573933</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>55.04634263618136</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>70.80920852119604</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>87.45337212097871</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>125.5355353350528</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>302.3398778399651</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -913,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09896938461825357</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>85.9297296657428</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.4956753182094</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>374.9402261432045</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1150,10 +1150,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>271.0265094847859</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>129.1752199258839</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>139.8834969875627</v>
@@ -1536,19 +1536,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037912</v>
+        <v>67.76860390936784</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>207.7731371833678</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263995</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>69.98044377590185</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>189.6577234630885</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905467</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037912</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.26622522522271</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>60.42056731244383</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037912</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
         <v>246.7800261198764</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>19.73501325348707</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.5506594546371</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.429322727504</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
         <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2718,13 +2718,13 @@
         <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>66.60622329745158</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>17.96311839678217</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835352</v>
@@ -2778,7 +2778,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2955,7 +2955,7 @@
         <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
@@ -2964,13 +2964,13 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.37522441527506</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
         <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>185.724610506043</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3046,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3094,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>63.60327160359343</v>
+        <v>88.04314577169825</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3429,7 +3429,7 @@
         <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
@@ -3441,10 +3441,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>173.714720528144</v>
+        <v>107.7276828060605</v>
       </c>
       <c r="X37" t="n">
         <v>206.4614817925754</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>95.47055403288579</v>
+        <v>198.6308730371346</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>183.5236380974013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505612</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>70.36042284486155</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>31.9901801406238</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>137.8797272855246</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>25.35908699567619</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>476.6922027889386</v>
+        <v>1162.817081144714</v>
       </c>
       <c r="C2" t="n">
-        <v>470.6080161426128</v>
+        <v>752.692490457984</v>
       </c>
       <c r="D2" t="n">
-        <v>66.14408623567327</v>
+        <v>348.2285605510446</v>
       </c>
       <c r="E2" t="n">
-        <v>55.84427479297403</v>
+        <v>55.84427479297418</v>
       </c>
       <c r="F2" t="n">
-        <v>38.85426678706565</v>
+        <v>38.8542667870658</v>
       </c>
       <c r="G2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="H2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="J2" t="n">
-        <v>34.1663867203019</v>
+        <v>288.3518581880563</v>
       </c>
       <c r="K2" t="n">
-        <v>34.1663867203019</v>
+        <v>711.1608938517943</v>
       </c>
       <c r="L2" t="n">
-        <v>456.9754223840379</v>
+        <v>711.1608938517943</v>
       </c>
       <c r="M2" t="n">
-        <v>879.7844580477738</v>
+        <v>1133.969929515532</v>
       </c>
       <c r="N2" t="n">
-        <v>879.7844580477738</v>
+        <v>1133.969929515532</v>
       </c>
       <c r="O2" t="n">
-        <v>1244.953654661794</v>
+        <v>1133.969929515532</v>
       </c>
       <c r="P2" t="n">
-        <v>1667.76269032553</v>
+        <v>1346.601683530246</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.76269032553</v>
+        <v>1667.762690325538</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015103</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015095</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015095</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015095</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="V2" t="n">
-        <v>1668.213350160813</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="W2" t="n">
-        <v>1284.453049295981</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8096514649339</v>
+        <v>1573.038260809203</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.872978413024</v>
+        <v>1573.038260809203</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>642.2500156425524</v>
+        <v>340.660982051137</v>
       </c>
       <c r="C3" t="n">
-        <v>508.254944391498</v>
+        <v>206.6659108000827</v>
       </c>
       <c r="D3" t="n">
-        <v>391.3577866108905</v>
+        <v>89.76875301947514</v>
       </c>
       <c r="E3" t="n">
-        <v>270.8649706032185</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="F3" t="n">
-        <v>161.905090785723</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="G3" t="n">
-        <v>54.91497810006173</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006173</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="J3" t="n">
-        <v>34.1663867203019</v>
+        <v>226.9792442829353</v>
       </c>
       <c r="K3" t="n">
-        <v>34.1663867203019</v>
+        <v>649.7882799466732</v>
       </c>
       <c r="L3" t="n">
-        <v>34.1663867203019</v>
+        <v>1072.597315610411</v>
       </c>
       <c r="M3" t="n">
-        <v>456.9754223840379</v>
+        <v>1328.915351968489</v>
       </c>
       <c r="N3" t="n">
-        <v>512.8568000036394</v>
+        <v>1328.915351968489</v>
       </c>
       <c r="O3" t="n">
-        <v>935.6658356673754</v>
+        <v>1328.915351968489</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.915351968489</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015095</v>
+        <v>1678.759816652473</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015103</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129404</v>
+        <v>1600.329326129411</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316412</v>
+        <v>1440.98746231642</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454631</v>
+        <v>1243.636651454638</v>
       </c>
       <c r="V3" t="n">
-        <v>1172.112198402917</v>
+        <v>1029.925124447672</v>
       </c>
       <c r="W3" t="n">
-        <v>958.8790301392462</v>
+        <v>816.6919561840008</v>
       </c>
       <c r="X3" t="n">
-        <v>782.553048278139</v>
+        <v>640.3659743228936</v>
       </c>
       <c r="Y3" t="n">
-        <v>782.553048278139</v>
+        <v>480.9640146867237</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1085.672682177538</v>
+        <v>122.5031262364422</v>
       </c>
       <c r="C4" t="n">
-        <v>914.5793097392541</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="D4" t="n">
-        <v>755.084665062164</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="E4" t="n">
-        <v>594.1738499304836</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="G4" t="n">
-        <v>300.1198878105191</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159757</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030205</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551242</v>
+        <v>48.24893612551257</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477504</v>
+        <v>202.8012638477505</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278109</v>
+        <v>462.6983641278111</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683042</v>
+        <v>751.9624205683044</v>
       </c>
       <c r="N4" t="n">
-        <v>1032.801202962554</v>
+        <v>1032.801202962555</v>
       </c>
       <c r="O4" t="n">
         <v>1292.361813289029</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1563.565283341152</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1563.565283341152</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1324.016544317854</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>1324.016544317854</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="V4" t="n">
-        <v>1324.016544317854</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="W4" t="n">
-        <v>1324.016544317854</v>
+        <v>773.2823933820384</v>
       </c>
       <c r="X4" t="n">
-        <v>1085.672682177538</v>
+        <v>534.9385312417219</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.672682177538</v>
+        <v>310.2028326304866</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.631969834256</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>1683.54778318793</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="D5" t="n">
-        <v>1683.124257321394</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.784041838291</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.873237198831</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.812745458341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.812745458341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.812745458341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.812745458341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.812745458341</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
         <v>62.51367700936187</v>
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1268.263812524886</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583.2526017710895</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="C7" t="n">
-        <v>412.159229332806</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D7" t="n">
-        <v>412.159229332806</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>412.159229332806</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>412.159229332806</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>244.9088382583494</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.365834796576</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W7" t="n">
-        <v>1009.29617030545</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="X7" t="n">
-        <v>770.9523081651339</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.9523081651339</v>
+        <v>317.6057762023659</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>539.2455748491877</v>
+        <v>1162.095456733376</v>
       </c>
       <c r="C8" t="n">
-        <v>160.5180736944356</v>
+        <v>751.9708660466462</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0945478279002</v>
+        <v>347.5069361397067</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>337.2071246970074</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>320.217116691099</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>315.5292366243353</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4813,16 +4813,16 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="N8" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N8" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>1347.00642135623</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X8" t="n">
-        <v>946.3630235251831</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="Y8" t="n">
-        <v>545.4263504732731</v>
+        <v>1168.276232357462</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.2451057567575</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C10" t="n">
-        <v>172.2451057567575</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>172.2451057567575</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>172.2451057567575</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>172.2451057567575</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>172.2451057567575</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>689.6586323881997</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>410.5889678970741</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>172.2451057567575</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y10" t="n">
-        <v>172.2451057567575</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5080,13 +5080,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.9991721489654</v>
+        <v>955.9031723499645</v>
       </c>
       <c r="C13" t="n">
-        <v>832.7027105453667</v>
+        <v>814.6067107463658</v>
       </c>
       <c r="D13" t="n">
-        <v>703.0049767029616</v>
+        <v>684.9089769039606</v>
       </c>
       <c r="E13" t="n">
-        <v>571.8910724059659</v>
+        <v>553.7950726069648</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512421</v>
+        <v>418.9608575522409</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>281.5073773124691</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>161.6968329526105</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1591.046577105541</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U13" t="n">
-        <v>1381.174721364766</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V13" t="n">
-        <v>1381.174721364766</v>
+        <v>1400.114713782956</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.901967708325</v>
+        <v>1150.841960126515</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.901967708325</v>
+        <v>1150.841960126515</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.901967708325</v>
+        <v>955.9031723499645</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5317,7 +5317,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
         <v>3092.17704518032</v>
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.9991721489654</v>
+        <v>887.4500370879769</v>
       </c>
       <c r="C16" t="n">
-        <v>832.7027105453667</v>
+        <v>746.1535754843782</v>
       </c>
       <c r="D16" t="n">
-        <v>703.0049767029616</v>
+        <v>616.4558416419729</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059659</v>
+        <v>485.3419373449772</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902532</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504814</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5466,22 +5466,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1628.992038553309</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U16" t="n">
-        <v>1375.990801934118</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.901967708325</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.901967708325</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.901967708325</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.901967708325</v>
+        <v>1045.352832647337</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5594,16 +5594,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
         <v>1435.775802995229</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713.1875340095646</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C19" t="n">
-        <v>571.8910724059659</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D19" t="n">
-        <v>571.8910724059659</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059659</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114703</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1824.692167102027</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1668.097309816622</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1668.097309816622</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1415.096073197431</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1171.007238971637</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W19" t="n">
-        <v>921.7344853151964</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X19" t="n">
-        <v>713.1875340095646</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y19" t="n">
-        <v>713.1875340095646</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5779,7 +5779,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
         <v>4364.291146941468</v>
@@ -5797,7 +5797,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>780.3852888075586</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C22" t="n">
-        <v>639.0888272039599</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D22" t="n">
-        <v>509.3910933615548</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E22" t="n">
-        <v>378.2771890645591</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.2463129913835</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G22" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.046577105541</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>1591.046577105541</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.773823449101</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.226872143469</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y22" t="n">
-        <v>938.2880843669182</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6019,7 +6019,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035665</v>
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3389.105104090173</v>
+        <v>371.9936395339932</v>
       </c>
       <c r="C25" t="n">
-        <v>3389.105104090173</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D25" t="n">
-        <v>3389.105104090173</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E25" t="n">
-        <v>3257.991199793177</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F25" t="n">
-        <v>3123.156984738453</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G25" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>4606.709077041224</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>4396.957248852611</v>
+        <v>1679.74499867696</v>
       </c>
       <c r="U25" t="n">
-        <v>4143.95601223342</v>
+        <v>1426.743762057769</v>
       </c>
       <c r="V25" t="n">
-        <v>3899.867178007627</v>
+        <v>1182.654927831976</v>
       </c>
       <c r="W25" t="n">
-        <v>3650.594424351186</v>
+        <v>933.3821741755352</v>
       </c>
       <c r="X25" t="n">
-        <v>3650.594424351186</v>
+        <v>724.8352228699033</v>
       </c>
       <c r="Y25" t="n">
-        <v>3547.007899649532</v>
+        <v>529.8964350933528</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>632.8052776733939</v>
+        <v>705.2207723174819</v>
       </c>
       <c r="C28" t="n">
-        <v>491.5088160697953</v>
+        <v>563.9243107138833</v>
       </c>
       <c r="D28" t="n">
-        <v>361.8110822273902</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E28" t="n">
-        <v>230.6971779303945</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F28" t="n">
         <v>230.6971779303945</v>
@@ -6390,10 +6390,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
         <v>1237.898275478249</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1782.653841257001</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1782.653841257001</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1529.65260463781</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>1285.563770412017</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>1036.291016755576</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X28" t="n">
-        <v>827.7440654499443</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="Y28" t="n">
-        <v>632.8052776733939</v>
+        <v>705.2207723174819</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>430.910136076463</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6551,13 +6551,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.488278645941</v>
+        <v>885.4095549549257</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1918170423423</v>
+        <v>744.1130933513272</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1918170423423</v>
+        <v>614.4153595089221</v>
       </c>
       <c r="E31" t="n">
-        <v>228.0779127453467</v>
+        <v>483.3014552119264</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>348.4672401572026</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6627,10 +6627,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478249</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.20354800875</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820137</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200946</v>
+        <v>1338.045340486351</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751524</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187117</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="X31" t="n">
-        <v>500.488278645941</v>
+        <v>885.4095549549257</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.488278645941</v>
+        <v>885.4095549549257</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E32" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,22 +6727,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y32" t="n">
         <v>2721.037282963094</v>
@@ -6785,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>354.5244442569915</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>354.5244442569915</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1228.182536368609</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.1368012984846</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C34" t="n">
-        <v>571.8910724059659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>571.8910724059659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>1093.956506260557</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W34" t="n">
-        <v>844.6837526041163</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X34" t="n">
-        <v>636.1368012984846</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.1368012984846</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G35" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583754</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267415</v>
       </c>
       <c r="L35" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079653</v>
       </c>
       <c r="M35" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
         <v>4364.291146941468</v>
@@ -6976,7 +6976,7 @@
         <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
@@ -7007,16 +7007,16 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K36" t="n">
         <v>549.0499539559215</v>
@@ -7028,16 +7028,16 @@
         <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>2083.796217986828</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>2083.796217986828</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.1886277891067</v>
+        <v>973.999172148965</v>
       </c>
       <c r="C37" t="n">
-        <v>712.8921661855081</v>
+        <v>832.7027105453665</v>
       </c>
       <c r="D37" t="n">
-        <v>583.194432343103</v>
+        <v>703.0049767029614</v>
       </c>
       <c r="E37" t="n">
-        <v>452.0805280461074</v>
+        <v>571.8910724059657</v>
       </c>
       <c r="F37" t="n">
-        <v>317.2463129913835</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G37" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J37" t="n">
         <v>136.530199404908</v>
@@ -7101,10 +7101,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478249</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1591.046577105541</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.046577105541</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="V37" t="n">
-        <v>1591.046577105541</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.577162430649</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="X37" t="n">
-        <v>1207.030211125017</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y37" t="n">
-        <v>1012.091423348466</v>
+        <v>1131.901967708324</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388658</v>
+        <v>149.798549538865</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
@@ -7186,40 +7186,40 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H39" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>532.5581915209807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.6452972821142</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C40" t="n">
-        <v>496.6452972821142</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D40" t="n">
-        <v>496.6452972821142</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E40" t="n">
-        <v>365.5313929851185</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F40" t="n">
-        <v>230.6971779303946</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7365,19 +7365,19 @@
         <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1393.492624246531</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V40" t="n">
-        <v>1149.403790020737</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W40" t="n">
-        <v>900.1310363642965</v>
+        <v>795.928693935763</v>
       </c>
       <c r="X40" t="n">
-        <v>691.5840850586646</v>
+        <v>587.3817426301313</v>
       </c>
       <c r="Y40" t="n">
-        <v>496.6452972821142</v>
+        <v>392.4429548535809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700726</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583754</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267415</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079653</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H42" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>1597.308950304478</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1597.308950304478</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>323.8094765544416</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="C43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J43" t="n">
         <v>107.3262470958333</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>548.5451751656769</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>323.8094765544416</v>
+        <v>93.24369769062278</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976084</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529994</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458316</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735496</v>
       </c>
       <c r="I44" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
@@ -7672,28 +7672,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388362</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523531</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H45" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>532.5581915209807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.216283632599</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.280283388802</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="C46" t="n">
-        <v>578.280283388802</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D46" t="n">
-        <v>418.7856387117121</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800315</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I46" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J46" t="n">
         <v>107.3262470958333</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V46" t="n">
-        <v>828.6312213896092</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W46" t="n">
-        <v>828.6312213896092</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X46" t="n">
-        <v>803.0159820000373</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.280283388802</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769927</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666186</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608192</v>
+        <v>520.3700584608212</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>462.0475499833793</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846579</v>
+        <v>308.4289127906958</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883911</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>483.1943578146247</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421912</v>
+        <v>316.4713911708194</v>
       </c>
       <c r="N3" t="n">
-        <v>109.6392293731454</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037737</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065775</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8233,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>362.9022490996783</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,19 +8461,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>553.1935596277625</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8537,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>171.9933802602897</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8780,10 +8780,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8792,7 +8792,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9172,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>529.7246381472005</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P21" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9956,16 +9956,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10199,16 +10199,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>178.5117997957786</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10433,7 +10433,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>320.0344698374841</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158864</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>110.7613274818897</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521913</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606024</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>501.3162977084759</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158864</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6544519663084</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11302,7 +11302,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>501.3162977084759</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.91503980101133</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>42.6980870696313</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>137.6738661308251</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
         <v>246.7800261198764</v>
@@ -23721,7 +23721,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>3.331676435696522</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>52.56154735369884</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.65482418979364</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>73.06530559173282</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.56154735369884</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>187.9192966532399</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.43874044414781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>61.79453320652945</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S28" t="n">
-        <v>137.0657903157687</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>87.7037210220989</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>20.73687128653239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>76.28022538396922</v>
+        <v>51.84035121586436</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>73.06530559173231</v>
+        <v>139.0523433138159</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037914</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>155.0006702201133</v>
+        <v>51.84035121586442</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>222.4997066824612</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172523825</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>99.02201586903911</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>142.0904386938125</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>210.6013365232373</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514176.4770815679</v>
+        <v>514176.477081568</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>517730.0516977011</v>
+        <v>517730.0516977012</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517730.0516977012</v>
+        <v>517730.0516977013</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517730.0516977012</v>
+        <v>517730.0516977013</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>517730.0516977013</v>
+        <v>517730.0516977011</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>517730.0516977013</v>
+        <v>517730.0516977012</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>517730.0516977012</v>
+        <v>517730.0516977013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>517730.0516977012</v>
+        <v>517730.0516977013</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478654.7387233984</v>
+        <v>478654.7387233985</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>651529.5721298278</v>
+      </c>
+      <c r="C2" t="n">
         <v>651529.572129828</v>
       </c>
-      <c r="C2" t="n">
-        <v>651529.5721298278</v>
-      </c>
       <c r="D2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298283</v>
       </c>
       <c r="E2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="F2" t="n">
+        <v>631397.7523692572</v>
+      </c>
+      <c r="G2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="H2" t="n">
         <v>631397.7523692574</v>
       </c>
-      <c r="F2" t="n">
-        <v>631397.7523692575</v>
-      </c>
-      <c r="G2" t="n">
-        <v>631397.7523692574</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>631397.7523692577</v>
+      </c>
+      <c r="J2" t="n">
+        <v>631397.7523692572</v>
+      </c>
+      <c r="K2" t="n">
         <v>631397.7523692573</v>
-      </c>
-      <c r="I2" t="n">
-        <v>631397.7523692572</v>
-      </c>
-      <c r="J2" t="n">
-        <v>631397.7523692573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>631397.7523692574</v>
       </c>
       <c r="L2" t="n">
         <v>631397.7523692573</v>
       </c>
       <c r="M2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692572</v>
       </c>
       <c r="N2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692572</v>
       </c>
       <c r="O2" t="n">
-        <v>579297.3350701877</v>
+        <v>579297.3350701875</v>
       </c>
       <c r="P2" t="n">
         <v>579297.3350701877</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108473</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668813</v>
+        <v>30686.46086668751</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691538</v>
+        <v>135342.0294691543</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.7742611095</v>
+        <v>24445.774261109</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206246.6793413687</v>
+        <v>206246.6793413683</v>
       </c>
       <c r="C4" t="n">
         <v>184088.9587438941</v>
@@ -26426,40 +26426,40 @@
         <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="F4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="G4" t="n">
-        <v>74729.89476777155</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="H4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="I4" t="n">
-        <v>74729.89476777164</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="J4" t="n">
+        <v>74729.89476777162</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74729.89476777162</v>
+      </c>
+      <c r="L4" t="n">
+        <v>74729.89476777162</v>
+      </c>
+      <c r="M4" t="n">
+        <v>74729.89476777161</v>
+      </c>
+      <c r="N4" t="n">
         <v>74729.89476777159</v>
       </c>
-      <c r="K4" t="n">
-        <v>74729.89476777159</v>
-      </c>
-      <c r="L4" t="n">
-        <v>74729.89476777158</v>
-      </c>
-      <c r="M4" t="n">
-        <v>74729.89476777159</v>
-      </c>
-      <c r="N4" t="n">
-        <v>74729.89476777153</v>
-      </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742944</v>
+        <v>59594.05390742955</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26490,7 +26490,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686484</v>
@@ -26499,19 +26499,19 @@
         <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
+        <v>73345.15677686484</v>
+      </c>
+      <c r="M5" t="n">
         <v>73345.15677686482</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487331</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242564.5636701833</v>
+        <v>242564.5636701827</v>
       </c>
       <c r="C6" t="n">
-        <v>371385.0874407481</v>
+        <v>371385.0874407489</v>
       </c>
       <c r="D6" t="n">
-        <v>402071.5483074365</v>
+        <v>402071.5483074366</v>
       </c>
       <c r="E6" t="n">
-        <v>267593.7845441074</v>
+        <v>267543.454994706</v>
       </c>
       <c r="F6" t="n">
-        <v>483322.7008246211</v>
+        <v>483272.3712752194</v>
       </c>
       <c r="G6" t="n">
-        <v>483322.700824621</v>
+        <v>483272.3712752195</v>
       </c>
       <c r="H6" t="n">
-        <v>483322.7008246209</v>
+        <v>483272.3712752197</v>
       </c>
       <c r="I6" t="n">
-        <v>483322.7008246207</v>
+        <v>483272.37127522</v>
       </c>
       <c r="J6" t="n">
-        <v>347980.6713554671</v>
+        <v>347930.341806065</v>
       </c>
       <c r="K6" t="n">
-        <v>458876.9265635115</v>
+        <v>458826.5970141105</v>
       </c>
       <c r="L6" t="n">
-        <v>483322.7008246209</v>
+        <v>483272.3712752194</v>
       </c>
       <c r="M6" t="n">
-        <v>322964.2503239381</v>
+        <v>322913.9207745367</v>
       </c>
       <c r="N6" t="n">
-        <v>483322.7008246211</v>
+        <v>483272.3712752193</v>
       </c>
       <c r="O6" t="n">
-        <v>463512.2594744117</v>
+        <v>463331.6788817624</v>
       </c>
       <c r="P6" t="n">
-        <v>463512.2594744117</v>
+        <v>463331.6788817626</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.9837363662499</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.9837363662499</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.9837363662499</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>120.7363704277826</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>306.6342531211448</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.24154521141392</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>140.7652032157005</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.92906659292194</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>37.44927929546188</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>103.6834669398975</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.8854498279915</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27788,10 +27788,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>62.18165097685511</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>34.99266630691349</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>31.08311863665801</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>36.77290291377329</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.93616071671406</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633796</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="41">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>368.8577743575962</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037737</v>
+        <v>214.7795495098117</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>427.0798340037757</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037737</v>
+        <v>258.907107432402</v>
       </c>
       <c r="N3" t="n">
-        <v>56.44583597939545</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>500.9700927793177</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>306.2096305948396</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>460.0037840019794</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35512,7 +35512,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>473.6101143363514</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P21" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>120.9475160573612</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>263.919946026635</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825784</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>56.50169247908597</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
@@ -37484,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.788905695572</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>18.22667726606023</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>443.7520139700585</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978325</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825784</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>547.9029729663084</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733737</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>443.7520139700585</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
